--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
@@ -540,10 +540,10 @@
         <v>0.191936</v>
       </c>
       <c r="I2">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="J2">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,10 +570,10 @@
         <v>0.015543169216</v>
       </c>
       <c r="S2">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
       <c r="T2">
-        <v>0.2696590064529</v>
+        <v>0.8900471604056629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.173279</v>
+        <v>0.007903666666666666</v>
       </c>
       <c r="H3">
-        <v>0.519837</v>
+        <v>0.023711</v>
       </c>
       <c r="I3">
-        <v>0.7303409935471</v>
+        <v>0.109952839594337</v>
       </c>
       <c r="J3">
-        <v>0.7303409935471</v>
+        <v>0.109952839594337</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.004677435566333333</v>
+        <v>0.0002133489434444444</v>
       </c>
       <c r="R3">
-        <v>0.042096920097</v>
+        <v>0.001920140491</v>
       </c>
       <c r="S3">
-        <v>0.7303409935471</v>
+        <v>0.109952839594337</v>
       </c>
       <c r="T3">
-        <v>0.7303409935471</v>
+        <v>0.109952839594337</v>
       </c>
     </row>
   </sheetData>
